--- a/biology/Médecine/1672_en_santé_et_médecine/1672_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1672_en_santé_et_médecine/1672_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1672_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1672_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1672 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1672_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1672_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En France :
 Louis XIV tranche, dans la querelle scientifique qui oppose depuis plusieurs décennies les « circulateurs », adeptes de William Harvey, et leurs adversaires, et il confie à Pierre Dionis, chargé d'enseigner la circulation du sang, une chaire d’anatomie au Jardin du Roi (le Jardin royal des plantes médicinales, actuel Muséum national d'histoire naturelle).
 Antoine d'Aquin (1629-1696) est nommé premier médecin du roi Louis XIV.
 En Norvège :
-4 décembre : la loi exige  que les médecins soient accrédités par la faculté de médecine de Copenhague, la seule université de l’État, et leur donne l'autorité sur les apothicaires et les sages-femmes[1].</t>
+4 décembre : la loi exige  que les médecins soient accrédités par la faculté de médecine de Copenhague, la seule université de l’État, et leur donne l'autorité sur les apothicaires et les sages-femmes.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1672_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1672_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>13 février : Étienne-François Geoffroy (mort en 1731), médecin et chimiste français.
 2 août : Johann Jakob Scheuchzer (mort en 1733), médecin et naturaliste suisse.</t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1672_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1672_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Date à préciser
 Carlo Fracassati (né en 1630), médecin italien.
